--- a/dados_teste.xlsx
+++ b/dados_teste.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3f3729cbdfcb508/Documentos/Insper/Ciência de Dados/CD-23-P1--1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GALAZZI\Downloads\Cdados 3 semestre\Projeto 1\CD-23-P1-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="220" documentId="11_47119378017E060E62355476585DCE3A8746D11E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85775FC9-E450-4D7D-BF7D-135A467A81ED}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C952949C-5846-4F5C-8569-EBD2BE750F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="201">
   <si>
-    <t>Mensagem</t>
-  </si>
-  <si>
     <t>Não consigo ler .... Está muito confuso este site. Não consigo contato com ninguém para ajuda. Complicado o Amazon. Espero conseguir ler ou o estorno.</t>
   </si>
   <si>
@@ -619,10 +616,13 @@
     <t>Um livro sensacional. Tenho aplicado o conceito para adotar novos hábitos positivos em várias áreas da minha vida... Bom dia!!!</t>
   </si>
   <si>
-    <t>Target</t>
-  </si>
-  <si>
     <t>Ingles</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>review</t>
   </si>
 </sst>
 </file>
@@ -997,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B198" sqref="B198"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1009,7 +1009,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>199</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -1033,7 +1033,7 @@
     </row>
     <row r="4" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -1041,7 +1041,7 @@
     </row>
     <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -1049,7 +1049,7 @@
     </row>
     <row r="6" spans="1:2" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="7" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="8" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="9" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="10" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="11" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="12" spans="1:2" ht="114" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="13" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="14" spans="1:2" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="15" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="16" spans="1:2" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="17" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="18" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="19" spans="1:2" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="20" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="21" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
         <v>1</v>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="22" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="23" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>1</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="24" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>0</v>
@@ -1201,7 +1201,7 @@
     </row>
     <row r="25" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2">
         <v>1</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="26" spans="1:2" ht="171" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="27" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="28" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="29" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2">
         <v>1</v>
@@ -1241,7 +1241,7 @@
     </row>
     <row r="30" spans="1:2" ht="327.75" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2">
         <v>1</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="31" spans="1:2" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2">
         <v>1</v>
@@ -1257,7 +1257,7 @@
     </row>
     <row r="32" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2">
         <v>0</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="33" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2">
         <v>1</v>
@@ -1273,7 +1273,7 @@
     </row>
     <row r="34" spans="1:3" ht="57" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2">
         <v>0</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="35" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="2">
         <v>1</v>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2">
         <v>0</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="37" spans="1:3" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2">
         <v>0</v>
@@ -1305,18 +1305,18 @@
     </row>
     <row r="38" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2">
         <v>0</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2">
         <v>0</v>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2">
         <v>0</v>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="41" spans="1:3" ht="57" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2">
         <v>0</v>
@@ -1340,7 +1340,7 @@
     </row>
     <row r="42" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2">
         <v>0</v>
@@ -1348,7 +1348,7 @@
     </row>
     <row r="43" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="2">
         <v>1</v>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="44" spans="1:3" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="2">
         <v>1</v>
@@ -1364,7 +1364,7 @@
     </row>
     <row r="45" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="2">
         <v>1</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="46" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="2">
         <v>1</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="47" spans="1:3" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="2">
         <v>0</v>
@@ -1388,7 +1388,7 @@
     </row>
     <row r="48" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="2">
         <v>1</v>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="49" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="2">
         <v>0</v>
@@ -1404,7 +1404,7 @@
     </row>
     <row r="50" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="2">
         <v>1</v>
@@ -1412,7 +1412,7 @@
     </row>
     <row r="51" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="2">
         <v>1</v>
@@ -1420,7 +1420,7 @@
     </row>
     <row r="52" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="2">
         <v>0</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="53" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="2">
         <v>1</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="54" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="2">
         <v>0</v>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="55" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="2">
         <v>0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="2">
         <v>1</v>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="57" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="2">
         <v>0</v>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="58" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="2">
         <v>1</v>
@@ -1476,7 +1476,7 @@
     </row>
     <row r="59" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="2">
         <v>1</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="2">
         <v>0</v>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="61" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="2">
         <v>1</v>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="62" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="2">
         <v>1</v>
@@ -1508,7 +1508,7 @@
     </row>
     <row r="63" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="2">
         <v>1</v>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="64" spans="1:2" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="2">
         <v>1</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="65" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="2">
         <v>0</v>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="66" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="2">
         <v>0</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="67" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="2">
         <v>1</v>
@@ -1548,7 +1548,7 @@
     </row>
     <row r="68" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="2">
         <v>0</v>
@@ -1556,7 +1556,7 @@
     </row>
     <row r="69" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="2">
         <v>0</v>
@@ -1564,7 +1564,7 @@
     </row>
     <row r="70" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="2">
         <v>1</v>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="71" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="2">
         <v>0</v>
@@ -1580,7 +1580,7 @@
     </row>
     <row r="72" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="2">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="73" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="2">
         <v>0</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="2">
         <v>0</v>
@@ -1604,7 +1604,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="2">
         <v>1</v>
@@ -1612,7 +1612,7 @@
     </row>
     <row r="76" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="2">
         <v>1</v>
@@ -1620,7 +1620,7 @@
     </row>
     <row r="77" spans="1:2" ht="171" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="2">
         <v>1</v>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="78" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B78" s="2">
         <v>0</v>
@@ -1636,7 +1636,7 @@
     </row>
     <row r="79" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B79" s="2">
         <v>0</v>
@@ -1644,7 +1644,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B80" s="2">
         <v>0</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="81" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B81" s="2">
         <v>0</v>
@@ -1660,7 +1660,7 @@
     </row>
     <row r="82" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B82" s="2">
         <v>1</v>
@@ -1668,7 +1668,7 @@
     </row>
     <row r="83" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B83" s="2">
         <v>1</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="84" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B84" s="2">
         <v>1</v>
@@ -1684,7 +1684,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B85" s="2">
         <v>1</v>
@@ -1692,7 +1692,7 @@
     </row>
     <row r="86" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B86" s="2">
         <v>0</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="87" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B87" s="2">
         <v>1</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="88" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B88" s="2">
         <v>1</v>
@@ -1716,7 +1716,7 @@
     </row>
     <row r="89" spans="1:2" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B89" s="2">
         <v>1</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="90" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B90" s="2">
         <v>0</v>
@@ -1732,7 +1732,7 @@
     </row>
     <row r="91" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B91" s="2">
         <v>0</v>
@@ -1740,7 +1740,7 @@
     </row>
     <row r="92" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B92" s="2">
         <v>1</v>
@@ -1748,7 +1748,7 @@
     </row>
     <row r="93" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B93" s="2">
         <v>1</v>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="94" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B94" s="2">
         <v>1</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="95" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B95" s="2">
         <v>0</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="96" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B96" s="2">
         <v>0</v>
@@ -1780,7 +1780,7 @@
     </row>
     <row r="97" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B97" s="2">
         <v>0</v>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="98" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B98" s="2">
         <v>0</v>
@@ -1796,7 +1796,7 @@
     </row>
     <row r="99" spans="1:2" ht="171" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B99" s="2">
         <v>1</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B100" s="2">
         <v>0</v>
@@ -1812,7 +1812,7 @@
     </row>
     <row r="101" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B101" s="2">
         <v>0</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="102" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B102" s="2">
         <v>0</v>
@@ -1828,7 +1828,7 @@
     </row>
     <row r="103" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B103" s="2">
         <v>0</v>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="104" spans="1:2" ht="384.75" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B104" s="2">
         <v>1</v>
@@ -1844,7 +1844,7 @@
     </row>
     <row r="105" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B105" s="2">
         <v>1</v>
@@ -1852,7 +1852,7 @@
     </row>
     <row r="106" spans="1:2" ht="114" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B106" s="2">
         <v>1</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="107" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B107" s="2">
         <v>0</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="108" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B108" s="2">
         <v>1</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="109" spans="1:2" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B109" s="2">
         <v>0</v>
@@ -1884,7 +1884,7 @@
     </row>
     <row r="110" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B110" s="2">
         <v>0</v>
@@ -1892,7 +1892,7 @@
     </row>
     <row r="111" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B111" s="2">
         <v>1</v>
@@ -1900,7 +1900,7 @@
     </row>
     <row r="112" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B112" s="2">
         <v>0</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B113" s="2">
         <v>1</v>
@@ -1916,7 +1916,7 @@
     </row>
     <row r="114" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B114" s="2">
         <v>0</v>
@@ -1924,7 +1924,7 @@
     </row>
     <row r="115" spans="1:2" ht="114" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B115" s="2">
         <v>1</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="116" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B116" s="2">
         <v>1</v>
@@ -1940,7 +1940,7 @@
     </row>
     <row r="117" spans="1:2" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B117" s="2">
         <v>1</v>
@@ -1948,7 +1948,7 @@
     </row>
     <row r="118" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B118" s="2">
         <v>0</v>
@@ -1956,7 +1956,7 @@
     </row>
     <row r="119" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B119" s="2">
         <v>1</v>
@@ -1964,7 +1964,7 @@
     </row>
     <row r="120" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B120" s="2">
         <v>0</v>
@@ -1972,7 +1972,7 @@
     </row>
     <row r="121" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B121" s="2">
         <v>1</v>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="122" spans="1:2" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B122" s="2">
         <v>1</v>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="123" spans="1:2" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B123" s="2">
         <v>1</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="124" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B124" s="2">
         <v>0</v>
@@ -2004,7 +2004,7 @@
     </row>
     <row r="125" spans="1:2" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B125" s="2">
         <v>0</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="126" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B126" s="2">
         <v>1</v>
@@ -2020,7 +2020,7 @@
     </row>
     <row r="127" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B127" s="2">
         <v>0</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="128" spans="1:2" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B128" s="2">
         <v>1</v>
@@ -2036,7 +2036,7 @@
     </row>
     <row r="129" spans="1:2" ht="114" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B129" s="2">
         <v>0</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="130" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B130" s="2">
         <v>1</v>
@@ -2052,7 +2052,7 @@
     </row>
     <row r="131" spans="1:2" ht="171" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B131" s="2">
         <v>0</v>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="132" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B132" s="2">
         <v>1</v>
@@ -2068,7 +2068,7 @@
     </row>
     <row r="133" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B133" s="2">
         <v>0</v>
@@ -2076,7 +2076,7 @@
     </row>
     <row r="134" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B134" s="2">
         <v>0</v>
@@ -2084,7 +2084,7 @@
     </row>
     <row r="135" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B135" s="2">
         <v>1</v>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B136" s="2">
         <v>1</v>
@@ -2100,7 +2100,7 @@
     </row>
     <row r="137" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B137" s="2">
         <v>0</v>
@@ -2108,7 +2108,7 @@
     </row>
     <row r="138" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B138" s="2">
         <v>0</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="139" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B139" s="2">
         <v>0</v>
@@ -2124,7 +2124,7 @@
     </row>
     <row r="140" spans="1:2" ht="228" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B140" s="2">
         <v>1</v>
@@ -2132,7 +2132,7 @@
     </row>
     <row r="141" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B141" s="2">
         <v>0</v>
@@ -2140,7 +2140,7 @@
     </row>
     <row r="142" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B142" s="2">
         <v>1</v>
@@ -2148,7 +2148,7 @@
     </row>
     <row r="143" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B143" s="2">
         <v>0</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="144" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B144" s="2">
         <v>1</v>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B145" s="2">
         <v>0</v>
@@ -2172,7 +2172,7 @@
     </row>
     <row r="146" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B146" s="2">
         <v>0</v>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="147" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B147" s="2">
         <v>1</v>
@@ -2188,7 +2188,7 @@
     </row>
     <row r="148" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B148" s="2">
         <v>0</v>
@@ -2196,7 +2196,7 @@
     </row>
     <row r="149" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B149" s="2">
         <v>1</v>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="150" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B150" s="2">
         <v>1</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="151" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B151" s="2">
         <v>0</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="152" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B152" s="2">
         <v>0</v>
@@ -2228,7 +2228,7 @@
     </row>
     <row r="153" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B153" s="2">
         <v>0</v>
@@ -2236,7 +2236,7 @@
     </row>
     <row r="154" spans="1:2" ht="114" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B154" s="2">
         <v>1</v>
@@ -2244,7 +2244,7 @@
     </row>
     <row r="155" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B155" s="2">
         <v>1</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="156" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B156" s="2">
         <v>0</v>
@@ -2260,7 +2260,7 @@
     </row>
     <row r="157" spans="1:2" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B157" s="2">
         <v>1</v>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="158" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B158" s="2">
         <v>0</v>
@@ -2276,7 +2276,7 @@
     </row>
     <row r="159" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B159" s="2">
         <v>1</v>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="160" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B160" s="2">
         <v>1</v>
@@ -2292,7 +2292,7 @@
     </row>
     <row r="161" spans="1:2" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B161" s="2">
         <v>1</v>
@@ -2300,7 +2300,7 @@
     </row>
     <row r="162" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B162" s="2">
         <v>1</v>
@@ -2308,7 +2308,7 @@
     </row>
     <row r="163" spans="1:2" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B163" s="2">
         <v>1</v>
@@ -2316,7 +2316,7 @@
     </row>
     <row r="164" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B164" s="2">
         <v>0</v>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="165" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B165" s="2">
         <v>1</v>
@@ -2332,7 +2332,7 @@
     </row>
     <row r="166" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B166" s="2">
         <v>1</v>
@@ -2340,7 +2340,7 @@
     </row>
     <row r="167" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B167" s="2">
         <v>1</v>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="168" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B168" s="2">
         <v>1</v>
@@ -2356,7 +2356,7 @@
     </row>
     <row r="169" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B169" s="2">
         <v>1</v>
@@ -2364,7 +2364,7 @@
     </row>
     <row r="170" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B170" s="2">
         <v>0</v>
@@ -2372,7 +2372,7 @@
     </row>
     <row r="171" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B171" s="2">
         <v>1</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="172" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B172" s="2">
         <v>1</v>
@@ -2388,7 +2388,7 @@
     </row>
     <row r="173" spans="1:2" ht="114" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B173" s="2">
         <v>1</v>
@@ -2396,7 +2396,7 @@
     </row>
     <row r="174" spans="1:2" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B174" s="2">
         <v>1</v>
@@ -2404,7 +2404,7 @@
     </row>
     <row r="175" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B175" s="2">
         <v>1</v>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="176" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B176" s="2">
         <v>1</v>
@@ -2420,7 +2420,7 @@
     </row>
     <row r="177" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B177" s="2">
         <v>0</v>
@@ -2428,7 +2428,7 @@
     </row>
     <row r="178" spans="1:2" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B178" s="2">
         <v>1</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="179" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B179" s="2">
         <v>0</v>
@@ -2444,7 +2444,7 @@
     </row>
     <row r="180" spans="1:2" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B180" s="2">
         <v>1</v>
@@ -2452,7 +2452,7 @@
     </row>
     <row r="181" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B181" s="2">
         <v>0</v>
@@ -2460,7 +2460,7 @@
     </row>
     <row r="182" spans="1:2" ht="171" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B182" s="2">
         <v>1</v>
@@ -2468,7 +2468,7 @@
     </row>
     <row r="183" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B183" s="2">
         <v>0</v>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="184" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B184" s="2">
         <v>0</v>
@@ -2484,7 +2484,7 @@
     </row>
     <row r="185" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B185" s="2">
         <v>0</v>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="186" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B186" s="2">
         <v>1</v>
@@ -2500,7 +2500,7 @@
     </row>
     <row r="187" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B187" s="2">
         <v>0</v>
@@ -2508,7 +2508,7 @@
     </row>
     <row r="188" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B188" s="2">
         <v>0</v>
@@ -2516,7 +2516,7 @@
     </row>
     <row r="189" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B189" s="2">
         <v>1</v>
@@ -2524,7 +2524,7 @@
     </row>
     <row r="190" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B190" s="2">
         <v>1</v>
@@ -2532,7 +2532,7 @@
     </row>
     <row r="191" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B191" s="2">
         <v>0</v>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="192" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B192" s="2">
         <v>1</v>
@@ -2548,7 +2548,7 @@
     </row>
     <row r="193" spans="1:2" ht="370.5" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B193" s="2">
         <v>1</v>
@@ -2556,7 +2556,7 @@
     </row>
     <row r="194" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B194" s="2">
         <v>1</v>
@@ -2564,7 +2564,7 @@
     </row>
     <row r="195" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B195" s="2">
         <v>0</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="196" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B196" s="2">
         <v>1</v>
@@ -2580,7 +2580,7 @@
     </row>
     <row r="197" spans="1:2" ht="114" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B197" s="2">
         <v>1</v>
@@ -2588,7 +2588,7 @@
     </row>
     <row r="198" spans="1:2" ht="114" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B198" s="2">
         <v>1</v>
@@ -2596,7 +2596,7 @@
     </row>
     <row r="199" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B199" s="2">
         <v>1</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="200" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B200" s="2">
         <v>0</v>
@@ -2612,7 +2612,7 @@
     </row>
     <row r="201" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B201" s="2">
         <v>1</v>
